--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +941,82 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>19:41:20 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D15" t="n">
+        <v>83</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>19:52:54 02-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
